--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD9E18-B6E9-4740-A091-9355D0EAA120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC9D8F9-EF62-4F30-8185-6CE214631DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="28680" yWindow="-5880" windowWidth="16440" windowHeight="28320" tabRatio="845" activeTab="2" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="101">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1287,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
   <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1327,10 +1323,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -1341,10 +1337,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -1352,18 +1348,18 @@
         <v>1.3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -1374,13 +1370,13 @@
         <v>2.1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1388,13 +1384,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -1402,13 +1398,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -1419,10 +1415,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1430,13 +1426,13 @@
         <v>2.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -1444,13 +1440,13 @@
         <v>2.6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -1500,7 +1496,7 @@
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -1508,7 +1504,7 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1518,10 +1514,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1536,7 +1532,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1546,13 +1542,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1565,7 +1561,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1575,13 +1571,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1594,7 +1590,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1604,23 +1600,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -1636,7 +1632,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1646,23 +1642,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -1672,10 +1668,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -1685,13 +1681,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1703,10 +1699,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -1714,10 +1710,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -1725,13 +1721,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
@@ -1750,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1766,7 +1762,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -1774,7 +1770,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1784,10 +1780,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1802,7 +1798,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1812,13 +1808,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1831,7 +1827,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1841,65 +1837,65 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1919,7 +1915,7 @@
     <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1929,23 +1925,23 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E18" s="12" t="b">
         <v>1</v>
@@ -1955,10 +1951,10 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="12">
         <v>1000</v>
@@ -1968,13 +1964,13 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1986,13 +1982,13 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2035,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2051,7 +2047,7 @@
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2059,7 +2055,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2069,10 +2065,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2087,7 +2083,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2097,13 +2093,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2116,7 +2112,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2126,39 +2122,39 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2178,7 +2174,7 @@
     <row r="14" spans="1:5" ht="25.5">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2188,23 +2184,23 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="12" t="b">
         <v>1</v>
@@ -2214,10 +2210,10 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="12">
         <v>1000</v>
@@ -2227,13 +2223,13 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2245,10 +2241,10 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="14"/>
     </row>
@@ -2256,10 +2252,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2291,7 +2287,7 @@
     <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2299,7 +2295,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2309,10 +2305,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2327,7 +2323,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2337,13 +2333,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2356,7 +2352,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2366,13 +2362,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2385,7 +2381,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2395,23 +2391,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -2427,7 +2423,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2437,23 +2433,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -2463,10 +2459,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -2476,13 +2472,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2494,10 +2490,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -2505,10 +2501,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -2516,21 +2512,21 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="C24" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="17">
         <v>5</v>
@@ -2562,7 +2558,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2570,7 +2566,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2580,10 +2576,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2598,7 +2594,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2608,13 +2604,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2627,7 +2623,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2637,23 +2633,23 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -2663,10 +2659,10 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="11" t="b">
         <v>1</v>
@@ -2676,26 +2672,26 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2708,7 +2704,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2718,23 +2714,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -2750,7 +2746,7 @@
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2760,23 +2756,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -2786,10 +2782,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -2799,13 +2795,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2817,13 +2813,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2848,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2860,7 +2856,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2870,10 +2866,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2888,7 +2884,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2898,13 +2894,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2917,7 +2913,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2927,13 +2923,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2946,7 +2942,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2956,23 +2952,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -2988,7 +2984,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2998,23 +2994,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -3030,7 +3026,7 @@
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3040,23 +3036,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -3066,10 +3062,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -3079,13 +3075,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3097,13 +3093,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3129,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -3141,7 +3137,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3151,10 +3147,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3169,7 +3165,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3179,13 +3175,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3198,7 +3194,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3208,23 +3204,23 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -3234,23 +3230,23 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>0</v>
@@ -3260,26 +3256,26 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3292,7 +3288,7 @@
     <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3302,23 +3298,23 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E18" s="12" t="b">
         <v>1</v>
@@ -3328,10 +3324,10 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="12">
         <v>1000</v>
@@ -3341,13 +3337,13 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3359,13 +3355,13 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3418,7 +3414,7 @@
     <row r="1" spans="1:5" ht="26.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -3426,7 +3422,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3436,10 +3432,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3454,7 +3450,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3464,13 +3460,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3483,7 +3479,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3493,13 +3489,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3512,7 +3508,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3522,23 +3518,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -3554,7 +3550,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3564,23 +3560,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -3590,10 +3586,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -3603,13 +3599,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3621,10 +3617,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -3632,10 +3628,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -3643,13 +3639,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3690,7 +3686,7 @@
     <row r="1" spans="1:5" ht="18.75" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -3698,7 +3694,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3708,10 +3704,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3726,7 +3722,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3736,13 +3732,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3755,7 +3751,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3765,13 +3761,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3784,7 +3780,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3794,23 +3790,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -3826,7 +3822,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3836,23 +3832,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -3868,7 +3864,7 @@
     <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3878,23 +3874,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -3904,10 +3900,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -3917,13 +3913,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3935,10 +3931,10 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" s="14"/>
     </row>
@@ -3946,10 +3942,10 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="17">
         <v>1</v>
@@ -3957,21 +3953,21 @@
     </row>
     <row r="27" spans="1:5" ht="17.25" customHeight="1">
       <c r="C27" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="C28" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -3979,24 +3975,24 @@
     </row>
     <row r="29" spans="1:5">
       <c r="C29" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
         <v>70</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC9D8F9-EF62-4F30-8185-6CE214631DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90160B23-926F-4444-93C1-6F5283835978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5880" windowWidth="16440" windowHeight="28320" tabRatio="845" activeTab="2" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="1905" yWindow="1410" windowWidth="21600" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="103">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,10 +752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"fall"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Query String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -768,10 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/clths/:userIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/users/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -781,6 +773,46 @@
   </si>
   <si>
     <t>/clths/bookmark/:userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가을"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봄"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths/:userIdx?clthIdx=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1281,19 +1313,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
-  <dimension ref="B3:E19"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="30.375" customWidth="1"/>
     <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="1" spans="2:7">
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:7">
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1353,7 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1323,13 +1361,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>1.2</v>
       </c>
@@ -1337,13 +1375,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>1.3</v>
       </c>
@@ -1357,7 +1395,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:7">
       <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1403,7 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>2.1</v>
       </c>
@@ -1379,7 +1417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:7">
       <c r="B10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -1393,7 +1431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:7">
       <c r="B11" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -1401,13 +1439,13 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:7">
       <c r="B12" s="2">
         <v>2.4</v>
       </c>
@@ -1421,7 +1459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:7">
       <c r="B13" s="2">
         <v>2.5</v>
       </c>
@@ -1435,7 +1473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:7">
       <c r="B14" s="2">
         <v>2.6</v>
       </c>
@@ -1443,13 +1481,13 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:7">
       <c r="B15" s="2">
         <v>2.7</v>
       </c>
@@ -1457,7 +1495,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:7">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1481,7 +1519,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1770,7 +1808,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2031,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2055,7 +2093,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2543,7 +2581,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2665,7 +2703,7 @@
         <v>68</v>
       </c>
       <c r="E11" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2691,7 +2729,7 @@
         <v>42</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2984,7 +3022,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3113,7 +3151,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3249,7 +3287,7 @@
         <v>68</v>
       </c>
       <c r="E12" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3275,7 +3313,7 @@
         <v>42</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3398,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3617,7 +3655,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>55</v>
@@ -3670,7 +3708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3822,7 +3860,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3981,7 +4019,7 @@
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5">

--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90160B23-926F-4444-93C1-6F5283835978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B9760-CC00-4CF9-80E6-FED08813351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1410" windowWidth="21600" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="104">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -752,6 +756,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"fall"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Query String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -764,6 +772,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/clths/:userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/users/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -776,39 +788,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가을"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>봄"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -937,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,6 +973,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,24 +1299,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
-  <dimension ref="B1:G19"/>
+  <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="30.375" customWidth="1"/>
     <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-    </row>
     <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1346,12 +1326,12 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2">
@@ -1361,11 +1341,15 @@
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2">
@@ -1375,46 +1359,57 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>1.3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>2.1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:7">
@@ -1422,13 +1417,16 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:7">
@@ -1436,13 +1434,16 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -1453,10 +1454,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -1464,13 +1468,13 @@
         <v>2.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -1478,13 +1482,13 @@
         <v>2.6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -1511,6 +1515,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1519,7 +1524,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1534,7 +1539,7 @@
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -1542,7 +1547,7 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1552,10 +1557,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1570,7 +1575,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1580,13 +1585,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1599,7 +1604,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1609,13 +1614,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1628,7 +1633,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1638,23 +1643,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -1670,7 +1675,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1680,23 +1685,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -1706,10 +1711,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -1719,13 +1724,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1737,10 +1742,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -1748,10 +1753,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -1759,13 +1764,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
@@ -1784,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1800,7 +1805,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -1808,7 +1813,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1818,10 +1823,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1836,7 +1841,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1846,13 +1851,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1865,7 +1870,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1875,65 +1880,65 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1953,7 +1958,7 @@
     <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1963,23 +1968,23 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="12" t="b">
         <v>1</v>
@@ -1989,10 +1994,10 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="12">
         <v>1000</v>
@@ -2002,13 +2007,13 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2020,13 +2025,13 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2070,7 +2075,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2085,7 +2090,7 @@
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2093,7 +2098,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2103,10 +2108,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2121,7 +2126,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2131,13 +2136,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2150,7 +2155,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2160,39 +2165,39 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2212,7 +2217,7 @@
     <row r="14" spans="1:5" ht="25.5">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2222,23 +2227,23 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E16" s="12" t="b">
         <v>1</v>
@@ -2248,10 +2253,10 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="12">
         <v>1000</v>
@@ -2261,13 +2266,13 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2279,10 +2284,10 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="14"/>
     </row>
@@ -2290,10 +2295,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2325,7 +2330,7 @@
     <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2333,7 +2338,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2343,10 +2348,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2361,7 +2366,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2371,13 +2376,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2390,7 +2395,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2400,13 +2405,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2419,7 +2424,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2429,23 +2434,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -2461,7 +2466,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2471,23 +2476,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -2497,10 +2502,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -2510,13 +2515,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2528,10 +2533,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -2539,10 +2544,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -2550,21 +2555,21 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="C24" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="17">
         <v>5</v>
@@ -2581,7 +2586,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2596,7 +2601,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2604,7 +2609,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2614,10 +2619,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2632,7 +2637,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2642,13 +2647,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2661,7 +2666,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2671,23 +2676,23 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -2697,39 +2702,39 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" s="11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2742,7 +2747,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2752,23 +2757,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -2784,7 +2789,7 @@
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2794,23 +2799,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -2820,10 +2825,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -2833,13 +2838,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2851,13 +2856,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2886,7 +2891,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2894,7 +2899,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2904,10 +2909,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2922,7 +2927,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2932,13 +2937,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2951,7 +2956,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2961,13 +2966,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2980,7 +2985,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2990,23 +2995,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -3022,7 +3027,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3032,23 +3037,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -3064,7 +3069,7 @@
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3074,23 +3079,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -3100,10 +3105,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -3113,13 +3118,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3131,13 +3136,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3167,7 +3172,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -3175,7 +3180,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3185,10 +3190,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3203,7 +3208,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3213,13 +3218,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3232,7 +3237,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3242,23 +3247,23 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -3268,52 +3273,52 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3326,7 +3331,7 @@
     <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3336,23 +3341,23 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="12" t="b">
         <v>1</v>
@@ -3362,10 +3367,10 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="12">
         <v>1000</v>
@@ -3375,13 +3380,13 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3393,13 +3398,13 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3429,6 +3434,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3436,8 +3442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3452,7 +3458,7 @@
     <row r="1" spans="1:5" ht="26.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -3460,7 +3466,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3470,10 +3476,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3488,7 +3494,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3498,13 +3504,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3517,7 +3523,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3527,13 +3533,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3546,7 +3552,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3556,23 +3562,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -3588,7 +3594,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3598,23 +3604,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -3624,10 +3630,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -3637,13 +3643,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3655,10 +3661,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -3666,10 +3672,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -3677,13 +3683,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3708,7 +3714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3724,7 +3730,7 @@
     <row r="1" spans="1:5" ht="18.75" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -3732,7 +3738,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3742,10 +3748,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3760,7 +3766,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3770,13 +3776,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3789,7 +3795,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3799,13 +3805,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3818,7 +3824,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3828,23 +3834,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -3860,7 +3866,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3870,23 +3876,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -3902,7 +3908,7 @@
     <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3912,23 +3918,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -3938,10 +3944,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -3951,13 +3957,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3969,10 +3975,10 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="14"/>
     </row>
@@ -3980,10 +3986,10 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" s="17">
         <v>1</v>
@@ -3991,21 +3997,21 @@
     </row>
     <row r="27" spans="1:5" ht="17.25" customHeight="1">
       <c r="C27" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="C28" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -4013,24 +4019,24 @@
     </row>
     <row r="29" spans="1:5">
       <c r="C29" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B9760-CC00-4CF9-80E6-FED08813351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6EB19B-4DAA-4800-9191-F629257BD5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="23700" yWindow="-3090" windowWidth="21600" windowHeight="11295" tabRatio="845" activeTab="1" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1301,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
   <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1789,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>

--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6EB19B-4DAA-4800-9191-F629257BD5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208D106-0FE3-4030-8EF2-9760FB27E545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23700" yWindow="-3090" windowWidth="21600" windowHeight="11295" tabRatio="845" activeTab="1" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="23700" yWindow="-3090" windowWidth="21600" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="103">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입 api</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,10 +139,6 @@
   </si>
   <si>
     <t>/clths:/userIdx?clthIdx=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/clths:/userIdx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -772,10 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/clths/:userIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/users/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -793,6 +781,14 @@
   </si>
   <si>
     <t>/clths/:userIdx?clthIdx=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로컬 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 반영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +849,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,6 +877,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,14 +977,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1301,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
   <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1324,14 +1326,22 @@
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2">
@@ -1341,15 +1351,15 @@
         <v>5</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2">
@@ -1359,92 +1369,97 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>1.3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>2.1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>102</v>
-      </c>
+      <c r="F9" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2">
         <v>2.2000000000000002</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>102</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>102</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="2">
@@ -1454,42 +1469,51 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>102</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2">
         <v>2.5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="2">
         <v>2.6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="2">
@@ -1498,12 +1522,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="18"/>
@@ -1539,7 +1567,7 @@
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -1547,7 +1575,7 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1557,10 +1585,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1575,7 +1603,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1585,13 +1613,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1604,7 +1632,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1614,13 +1642,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1633,7 +1661,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1643,23 +1671,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -1675,7 +1703,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1685,23 +1713,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -1711,10 +1739,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -1724,13 +1752,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1742,10 +1770,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -1753,10 +1781,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -1764,13 +1792,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
@@ -1789,7 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -1805,7 +1833,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -1813,7 +1841,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1823,10 +1851,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1841,7 +1869,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1851,13 +1879,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1870,7 +1898,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1880,65 +1908,65 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1958,7 +1986,7 @@
     <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1968,23 +1996,23 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="12" t="b">
         <v>1</v>
@@ -1994,10 +2022,10 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="12">
         <v>1000</v>
@@ -2007,13 +2035,13 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2025,13 +2053,13 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2075,7 +2103,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2090,7 +2118,7 @@
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2098,7 +2126,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2108,10 +2136,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2126,7 +2154,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2136,13 +2164,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2155,7 +2183,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2165,39 +2193,39 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2217,7 +2245,7 @@
     <row r="14" spans="1:5" ht="25.5">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2227,23 +2255,23 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="12" t="b">
         <v>1</v>
@@ -2253,10 +2281,10 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="12">
         <v>1000</v>
@@ -2266,13 +2294,13 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2284,10 +2312,10 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="14"/>
     </row>
@@ -2295,10 +2323,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2330,7 +2358,7 @@
     <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2338,7 +2366,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2348,10 +2376,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2366,7 +2394,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2376,13 +2404,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2395,7 +2423,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2405,13 +2433,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2424,7 +2452,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2434,23 +2462,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -2466,7 +2494,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2476,23 +2504,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -2502,10 +2530,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -2515,13 +2543,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2533,10 +2561,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -2544,10 +2572,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -2555,21 +2583,21 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="C24" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" s="17">
         <v>5</v>
@@ -2586,7 +2614,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2601,15 +2629,15 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2619,10 +2647,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2637,7 +2665,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2647,13 +2675,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2666,7 +2694,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2676,23 +2704,23 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
@@ -2702,10 +2730,10 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" s="11" t="b">
         <v>1</v>
@@ -2715,26 +2743,26 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2747,7 +2775,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2757,23 +2785,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -2789,7 +2817,7 @@
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -2799,23 +2827,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -2825,10 +2853,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -2838,13 +2866,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2856,13 +2884,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2891,7 +2919,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -2899,7 +2927,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2909,10 +2937,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2927,7 +2955,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2937,13 +2965,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2956,7 +2984,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -2966,13 +2994,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2985,7 +3013,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2995,23 +3023,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -3027,7 +3055,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3037,23 +3065,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -3069,7 +3097,7 @@
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3079,23 +3107,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -3105,10 +3133,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -3118,13 +3146,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3136,13 +3164,13 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3172,7 +3200,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -3180,7 +3208,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3190,10 +3218,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3208,7 +3236,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3218,13 +3246,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3237,7 +3265,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3247,23 +3275,23 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -3273,23 +3301,23 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="4" t="b">
         <v>0</v>
@@ -3299,26 +3327,26 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3331,7 +3359,7 @@
     <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3341,23 +3369,23 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="12" t="b">
         <v>1</v>
@@ -3367,10 +3395,10 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" s="12">
         <v>1000</v>
@@ -3380,13 +3408,13 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3398,13 +3426,13 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3458,7 +3486,7 @@
     <row r="1" spans="1:5" ht="26.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -3466,7 +3494,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3476,10 +3504,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3494,7 +3522,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3504,13 +3532,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3523,7 +3551,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3533,13 +3561,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3552,7 +3580,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3562,23 +3590,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -3594,7 +3622,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3604,23 +3632,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -3630,10 +3658,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -3643,13 +3671,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3661,10 +3689,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -3672,10 +3700,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" s="17">
         <v>1</v>
@@ -3683,13 +3711,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3730,7 +3758,7 @@
     <row r="1" spans="1:5" ht="18.75" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -3738,7 +3766,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3748,10 +3776,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3766,7 +3794,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3776,13 +3804,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3795,7 +3823,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3805,13 +3833,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3824,7 +3852,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -3834,23 +3862,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -3866,7 +3894,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -3876,23 +3904,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -3908,7 +3936,7 @@
     <row r="19" spans="1:5" ht="18" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3918,23 +3946,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>29</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -3944,10 +3972,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -3957,13 +3985,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3975,10 +4003,10 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E25" s="14"/>
     </row>
@@ -3986,10 +4014,10 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="17">
         <v>1</v>
@@ -3997,21 +4025,21 @@
     </row>
     <row r="27" spans="1:5" ht="17.25" customHeight="1">
       <c r="C27" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="C28" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -4019,24 +4047,24 @@
     </row>
     <row r="29" spans="1:5">
       <c r="C29" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208D106-0FE3-4030-8EF2-9760FB27E545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5290F-1E36-4514-8E9E-EEAC8E7E10F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23700" yWindow="-3090" windowWidth="21600" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="105">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,6 +789,14 @@
   </si>
   <si>
     <t>서버 반영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths:/userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미완</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +857,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,6 +894,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -919,7 +933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -977,14 +991,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1304,7 +1321,7 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1334,12 +1351,12 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
@@ -1356,10 +1373,10 @@
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2">
@@ -1374,10 +1391,10 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2">
@@ -1392,18 +1409,18 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
@@ -1420,10 +1437,12 @@
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="21"/>
+      <c r="G9" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2">
@@ -1438,10 +1457,10 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="21"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="2">
@@ -1456,10 +1475,12 @@
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="2">
@@ -1469,15 +1490,17 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="21"/>
+      <c r="G12" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2">
@@ -1492,10 +1515,10 @@
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="2">
@@ -1510,10 +1533,10 @@
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="2">
@@ -3181,10 +3204,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A8CD0-080C-46BE-B1FE-A13478AFC1FE}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3288,156 +3311,148 @@
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="E11" s="4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="4" t="b">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="25.5">
+    <row r="16" spans="1:5">
       <c r="A16" s="4"/>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>29</v>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="12" t="b">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1000</v>
+        <v>31</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.5" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1">
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>73</v>
-      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
       <c r="C23" s="16"/>
       <c r="D23" s="4"/>
       <c r="E23" s="17"/>
@@ -3445,7 +3460,6 @@
     <row r="24" spans="1:5">
       <c r="C24" s="16"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5">
       <c r="C25" s="16"/>
@@ -3454,10 +3468,6 @@
     <row r="26" spans="1:5">
       <c r="C26" s="16"/>
       <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="C27" s="16"/>
-      <c r="D27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D5290F-1E36-4514-8E9E-EEAC8E7E10F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C782610-1B27-46A7-A806-330CD9ED28ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="23520" yWindow="5415" windowWidth="21600" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="104">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,10 +793,6 @@
   </si>
   <si>
     <t>/clths:/userIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미완</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +853,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -894,12 +890,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -933,7 +923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,9 +988,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,7 +1308,7 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1440,9 +1427,7 @@
       <c r="F9" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>104</v>
-      </c>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2">
@@ -1478,9 +1463,7 @@
       <c r="F11" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>104</v>
-      </c>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="2">
@@ -1498,9 +1481,7 @@
       <c r="F12" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>104</v>
-      </c>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2">

--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C782610-1B27-46A7-A806-330CD9ED28ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB057B44-8579-4F6E-8D81-3E98ED58A0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23520" yWindow="5415" windowWidth="21600" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="28680" yWindow="-5880" windowWidth="16440" windowHeight="28320" tabRatio="845" firstSheet="2" activeTab="4" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="125">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -793,6 +793,90 @@
   </si>
   <si>
     <t>/clths:/userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력하지 않은 항목이 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 형식이 일치하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 형식이 일치하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비번이 일치하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복된 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 연결 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 또는 비번이 빈칸임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일치하는 아이디 또는 비번이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 유저임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당하는 옷이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진을 등록하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비어있는 카테고리나 계절이 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 계절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 옷이 존재하지 않아 삭제 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷이 존재하지 않아 수정 실패</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,7 +1007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,9 +1059,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -989,6 +1070,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1307,7 +1418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
   <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1338,12 +1449,12 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
@@ -1360,10 +1471,10 @@
       <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2">
@@ -1378,10 +1489,10 @@
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2">
@@ -1396,18 +1507,18 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
@@ -1424,10 +1535,10 @@
       <c r="E9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2">
@@ -1442,10 +1553,10 @@
       <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="2">
@@ -1460,10 +1571,10 @@
       <c r="E11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="2">
@@ -1478,10 +1589,10 @@
       <c r="E12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2">
@@ -1496,10 +1607,10 @@
       <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="2">
@@ -1514,10 +1625,10 @@
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="2">
@@ -1538,7 +1649,7 @@
       <c r="G16" s="3"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="18"/>
+      <c r="D19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1553,186 +1664,186 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5DCB-1B88-4FFB-8B45-74DF246FB3BF}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B25" sqref="B25:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="12" t="b">
@@ -1741,11 +1852,11 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="12">
@@ -1754,11 +1865,11 @@
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -1767,48 +1878,85 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="16" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="C24" s="16"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="24"/>
+      <c r="D27" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="D28" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" s="13">
+        <v>2032</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1819,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B25" sqref="B25:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1831,7 +1979,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2075,25 +2223,85 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
+      <c r="B25" s="21" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4"/>
+      <c r="D28" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="4"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13">
+        <v>2021</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13">
+        <v>2026</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13">
+        <v>2027</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13">
+        <v>2030</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13">
+        <v>2025</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2104,10 +2312,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2116,7 +2324,7 @@
     <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
@@ -2143,7 +2351,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -2284,10 +2492,10 @@
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="12">
@@ -2297,10 +2505,10 @@
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="14" t="s">
@@ -2310,15 +2518,17 @@
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="17.25" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="14"/>
@@ -2326,15 +2536,97 @@
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="13">
         <v>2</v>
       </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" s="13"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="13"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13">
+        <v>2031</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13">
+        <v>2020</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2344,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC55FE7C-3CF7-440A-9A78-AC7E47E50271}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B26" sqref="B26:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2356,7 +2648,7 @@
     <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
@@ -2523,7 +2815,7 @@
       <c r="C17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="12" t="b">
@@ -2536,7 +2828,7 @@
       <c r="C18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="12">
@@ -2549,7 +2841,7 @@
       <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -2559,6 +2851,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5">
@@ -2567,7 +2860,7 @@
       <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="14"/>
@@ -2578,10 +2871,10 @@
       <c r="C22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2589,10 +2882,10 @@
       <c r="C23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="13" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2600,12 +2893,90 @@
       <c r="C24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <v>5</v>
       </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="13"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="13"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13">
+        <v>2032</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2615,19 +2986,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA27015-2419-45B9-9BA8-0973DD1BC647}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2635,266 +3006,360 @@
       <c r="B1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="C10" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="30" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="11" t="b">
-        <v>1</v>
+      <c r="C11" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>89</v>
+      <c r="E12" s="30" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>69</v>
-      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>83</v>
+      <c r="C16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="25.5">
+      <c r="B18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="4"/>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>29</v>
+      <c r="C20" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="25.5">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1">
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>50</v>
+      <c r="C23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="E24" s="13"/>
+      <c r="C24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D28" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E28" s="14" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="13"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="13"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="13"/>
+      <c r="D33" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="D34" s="13">
+        <v>2036</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="D35" s="13">
+        <v>2034</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="D36" s="13">
+        <v>2034</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="D37" s="13">
+        <v>3015</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2905,19 +3370,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEEA23-82FB-43F7-B823-B5D6F4D0C02F}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B15" sqref="B15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2925,208 +3390,208 @@
       <c r="B1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="12" t="b">
@@ -3136,10 +3601,10 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="12">
@@ -3149,10 +3614,10 @@
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -3162,19 +3627,60 @@
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="13"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="13"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="13"/>
+      <c r="D30" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="D31" s="13">
+        <v>3016</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3185,19 +3691,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A8CD0-080C-46BE-B1FE-A13478AFC1FE}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27" style="13" customWidth="1"/>
     <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3206,176 +3712,176 @@
       <c r="B1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="4" t="b">
+      <c r="E11" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="12" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="12" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="12" t="b">
@@ -3385,10 +3891,10 @@
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="12">
@@ -3398,10 +3904,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -3411,15 +3917,14 @@
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="14" t="s">
@@ -3429,26 +3934,82 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="16"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="17"/>
+      <c r="B23" s="25" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" s="16"/>
-      <c r="D24" s="4"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="C25" s="16"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="C26" s="16"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="13"/>
+      <c r="D26" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="D27" s="13">
+        <v>2033</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="D28" s="13">
+        <v>2036</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" s="13">
+        <v>2034</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30" s="13">
+        <v>2034</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="D31" s="13">
+        <v>2032</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3459,19 +4020,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="B25" sqref="B25:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
@@ -3479,166 +4040,166 @@
       <c r="B1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="12" t="b">
@@ -3648,10 +4209,10 @@
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="12">
@@ -3661,10 +4222,10 @@
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="14" t="s">
@@ -3674,15 +4235,14 @@
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="14"/>
@@ -3690,38 +4250,72 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" s="16"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="C25" s="16"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="25" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="C26" s="16"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="13"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="13"/>
+      <c r="D28" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" s="13">
+        <v>3017</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3731,228 +4325,228 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B32" sqref="B32:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" ht="25.5" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="12" t="b">
@@ -3962,10 +4556,10 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="12">
@@ -3975,10 +4569,10 @@
     <row r="23" spans="1:5" ht="18" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -3988,15 +4582,14 @@
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="12" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="14"/>
@@ -4004,58 +4597,100 @@
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" customHeight="1">
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="13" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E28" t="b">
+      <c r="E28" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="13" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="13"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="13"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="13"/>
+      <c r="D35" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="D36" s="13">
+        <v>3017</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\클래스_다이어그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB057B44-8579-4F6E-8D81-3E98ED58A0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCAFD02-C2DD-49B9-9E10-E89A091B74BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5880" windowWidth="16440" windowHeight="28320" tabRatio="845" firstSheet="2" activeTab="4" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" tabRatio="845" firstSheet="5" activeTab="9" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1068,9 +1068,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1100,6 +1097,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1422,10 +1422,10 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
@@ -1449,12 +1449,12 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
@@ -1513,12 +1513,12 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
@@ -1666,25 +1666,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5DCB-1B88-4FFB-8B45-74DF246FB3BF}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -1717,7 +1717,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="12"/>
@@ -1727,13 +1727,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="12"/>
@@ -1756,26 +1756,26 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="12"/>
@@ -1785,26 +1785,26 @@
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>1</v>
       </c>
     </row>
@@ -1815,9 +1815,9 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="12"/>
@@ -1827,13 +1827,13 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -1905,7 +1905,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -1916,29 +1916,29 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="C24" s="23"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="C27" s="24"/>
-      <c r="D27" s="24">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23">
         <v>1000</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1969,15 +1969,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
   </cols>
@@ -2135,7 +2135,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="25.5">
+    <row r="16" spans="1:5" ht="26.4">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>33</v>
@@ -2223,27 +2223,27 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23">
         <v>1000</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2314,17 +2314,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
+    <col min="5" max="5" width="34.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
@@ -2454,7 +2454,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="25.5">
+    <row r="14" spans="1:5" ht="26.4">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
         <v>33</v>
@@ -2536,7 +2536,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -2547,7 +2547,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="13"/>
@@ -2556,21 +2556,21 @@
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="13"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="13"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23">
         <v>1000</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2638,16 +2638,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC55FE7C-3CF7-440A-9A78-AC7E47E50271}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:E29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2787,7 +2787,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
@@ -2901,7 +2901,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="24" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="13"/>
@@ -2910,21 +2910,21 @@
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="13"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="13"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23">
         <v>1000</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2988,17 +2988,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA27015-2419-45B9-9BA8-0973DD1BC647}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="30.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.19921875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3006,11 +3006,11 @@
       <c r="B1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>100</v>
       </c>
@@ -3049,13 +3049,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3078,52 +3078,52 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="30" t="b">
+      <c r="E10" s="29" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3146,35 +3146,35 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
@@ -3188,26 +3188,26 @@
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>1</v>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" ht="25.5">
+    <row r="22" spans="1:5" ht="26.4">
       <c r="A22" s="4"/>
       <c r="B22" s="8" t="s">
         <v>33</v>
@@ -3230,13 +3230,13 @@
     <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3297,27 +3297,27 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="13"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="13"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23">
         <v>1000</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3372,17 +3372,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEEA23-82FB-43F7-B823-B5D6F4D0C02F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.8984375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3390,11 +3390,11 @@
       <c r="B1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -3433,13 +3433,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3462,13 +3462,13 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3491,35 +3491,35 @@
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
@@ -3533,37 +3533,37 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-    </row>
-    <row r="19" spans="1:5" ht="25.5">
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" ht="26.4">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>33</v>
@@ -3575,13 +3575,13 @@
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3642,27 +3642,27 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="13"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="13"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23">
         <v>1000</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3693,18 +3693,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A8CD0-080C-46BE-B1FE-A13478AFC1FE}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="13" customWidth="1"/>
     <col min="5" max="5" width="27" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3712,7 +3712,7 @@
       <c r="B1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
@@ -3755,13 +3755,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3784,13 +3784,13 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3853,7 +3853,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
@@ -3865,13 +3865,13 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3934,31 +3934,31 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="23"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="13"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="13"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23">
         <v>1000</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4022,29 +4022,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:E28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" style="13" customWidth="1"/>
     <col min="5" max="5" width="27" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
+    <row r="1" spans="1:5" ht="28.2">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -4083,13 +4083,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4112,13 +4112,13 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4141,37 +4141,37 @@
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.5">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
@@ -4183,13 +4183,13 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4250,7 +4250,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -4261,7 +4261,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -4272,31 +4272,31 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" s="23"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="13"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="13"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23">
         <v>1000</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4327,15 +4327,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32:E36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="13" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="13" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="13" customWidth="1"/>
   </cols>
@@ -4345,7 +4345,7 @@
       <c r="B1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
@@ -4388,13 +4388,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4417,13 +4417,13 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4446,35 +4446,35 @@
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
@@ -4488,26 +4488,26 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>1</v>
       </c>
     </row>
@@ -4530,13 +4530,13 @@
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="28" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -4608,7 +4608,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" customHeight="1">
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -4619,7 +4619,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -4630,7 +4630,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -4641,7 +4641,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -4652,27 +4652,27 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="13"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="13"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24">
+      <c r="C34" s="23"/>
+      <c r="D34" s="23">
         <v>1000</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>111</v>
       </c>
     </row>

--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\클래스_다이어그램\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCAFD02-C2DD-49B9-9E10-E89A091B74BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD59CAA-337F-43B5-B16C-5B0E68C9629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" tabRatio="845" firstSheet="5" activeTab="9" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="28695" yWindow="-1605" windowWidth="16410" windowHeight="11295" tabRatio="845" activeTab="4" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="회원가입" sheetId="2" r:id="rId2"/>
     <sheet name="로그인" sheetId="3" r:id="rId3"/>
     <sheet name="회원정보조회" sheetId="4" r:id="rId4"/>
-    <sheet name="옷 수정" sheetId="10" r:id="rId5"/>
-    <sheet name="옷 삭제" sheetId="9" r:id="rId6"/>
-    <sheet name="옷 등록" sheetId="8" r:id="rId7"/>
-    <sheet name="즐겨찾기된 옷 조회" sheetId="7" r:id="rId8"/>
-    <sheet name="개별 옷 정보 조회" sheetId="6" r:id="rId9"/>
-    <sheet name="전체 옷 조회" sheetId="5" r:id="rId10"/>
+    <sheet name="옷 검색" sheetId="11" r:id="rId5"/>
+    <sheet name="옷 수정" sheetId="10" r:id="rId6"/>
+    <sheet name="옷 삭제" sheetId="9" r:id="rId7"/>
+    <sheet name="옷 등록" sheetId="8" r:id="rId8"/>
+    <sheet name="즐겨찾기된 옷 조회" sheetId="7" r:id="rId9"/>
+    <sheet name="개별 옷 정보 조회" sheetId="6" r:id="rId10"/>
+    <sheet name="전체 옷 조회" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="137">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,6 +878,273 @@
   </si>
   <si>
     <t>옷이 존재하지 않아 수정 실패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 검색 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">옷 검색 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths/search:/userIdx?query=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <r>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>clthIdx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>clthImgUrl</t>
+    </r>
+  </si>
+  <si>
+    <t>/img1</t>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봄"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봄+기타"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비고</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>띄어쓰기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청해도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>될것같아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">띄어쓰기는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서 +로 표시됩니다</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +1152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,6 +1203,27 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1007,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1100,6 +1389,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1419,13 +1720,13 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="30.3984375" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
@@ -1634,10 +1935,18 @@
       <c r="B15" s="2">
         <v>2.7</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7">
@@ -1663,20 +1972,396 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="13" customWidth="1"/>
+    <col min="5" max="5" width="26.5" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.25" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" customHeight="1">
+      <c r="C27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="13"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="13"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="13"/>
+      <c r="D35" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="D36" s="13">
+        <v>3017</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5DCB-1B88-4FFB-8B45-74DF246FB3BF}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="29.3984375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
@@ -1815,7 +2500,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="26.4">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="27" t="s">
         <v>33</v>
@@ -1973,11 +2658,11 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
   </cols>
@@ -2135,7 +2820,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="26.4">
+    <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>33</v>
@@ -2314,17 +2999,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" customWidth="1"/>
-    <col min="5" max="5" width="34.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="34.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
@@ -2454,7 +3139,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="26.4">
+    <row r="14" spans="1:5" ht="25.5">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
         <v>33</v>
@@ -2642,12 +3327,12 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2787,7 +3472,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="26.4">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
@@ -2985,59 +3670,59 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA27015-2419-45B9-9BA8-0973DD1BC647}">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B770B0E9-EE67-4ACA-97FB-13969A7B1B6E}">
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="30.19921875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="6" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="26.4">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
         <v>26</v>
@@ -3046,7 +3731,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="28" t="s">
@@ -3059,14 +3744,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
         <v>30</v>
@@ -3075,7 +3760,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="28" t="s">
@@ -3088,278 +3773,249 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="4"/>
-      <c r="B14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="4"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="B15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="C16" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27.75" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="C17" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="4"/>
-      <c r="B18" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B18" s="4"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6" ht="25.5">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="C20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" ht="26.4">
+      <c r="C21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="4"/>
-      <c r="B22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="B22" s="4"/>
+      <c r="C22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C23" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1">
+      <c r="C25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="C26" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="24" t="s">
+      <c r="C27" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" s="24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="13"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="13"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="C31" s="23"/>
+      <c r="D31" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32" s="13"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="13"/>
-      <c r="D33" s="13">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13">
         <v>4000</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="D34" s="13">
-        <v>2036</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="D35" s="13">
-        <v>2034</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="D36" s="13">
-        <v>2034</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="D37" s="13">
-        <v>3015</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3369,6 +4025,390 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA27015-2419-45B9-9BA8-0973DD1BC647}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.25" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5">
+      <c r="A2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" ht="25.5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="13"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="13"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="13"/>
+      <c r="D33" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="D34" s="13">
+        <v>2036</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="D35" s="13">
+        <v>2034</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="D36" s="13">
+        <v>2034</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="D37" s="13">
+        <v>3015</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEEA23-82FB-43F7-B823-B5D6F4D0C02F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -3376,13 +4416,13 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="30.8984375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3394,7 +4434,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="26.4">
+    <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
@@ -3563,7 +4603,7 @@
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="1:5" ht="26.4">
+    <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>33</v>
@@ -3689,7 +4729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A8CD0-080C-46BE-B1FE-A13478AFC1FE}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -3697,14 +4737,14 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="13" customWidth="1"/>
     <col min="5" max="5" width="27" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3853,7 +4893,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="26.4">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
@@ -4018,24 +5058,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="13" customWidth="1"/>
     <col min="5" max="5" width="27" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.2">
+    <row r="1" spans="1:5" ht="26.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>70</v>
@@ -4044,7 +5084,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="26.4">
+    <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -4171,7 +5211,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5" ht="26.4">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>33</v>
@@ -4321,380 +5361,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
-  <dimension ref="A1:E36"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="26.5" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" customHeight="1">
-      <c r="C27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="C29" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="C30" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="B32" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="13"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="13"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="13"/>
-      <c r="D35" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="D36" s="13">
-        <v>3017</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/클래스_다이어그램/api명세서.xlsx
+++ b/클래스_다이어그램/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD59CAA-337F-43B5-B16C-5B0E68C9629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B47152-3412-44F2-8A10-AFF5CAAF3680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-1605" windowWidth="16410" windowHeight="11295" tabRatio="845" activeTab="4" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="28680" yWindow="-5880" windowWidth="16440" windowHeight="28320" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="138">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,14 +904,6 @@
       </rPr>
       <t>api</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/clths/search:/userIdx?query=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -954,17 +946,250 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비고</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>띄어쓰기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요청해도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>될것같아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">띄어쓰기는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>url</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에서 +로 표시됩니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>"</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>" or "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>봄"</t>
+      <t>상의"</t>
     </r>
     <r>
       <rPr>
@@ -983,176 +1208,23 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>봄+기타"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비고</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>띄어쓰기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>해서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>여러</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>요청해도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>될것같아요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">띄어쓰기는 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>url</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에서 +로 표시됩니다</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>상의+아우터"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths/search:/userIdx?season=&amp;category=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>존재하지 않는 유저임</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1224,6 +1296,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1387,9 +1466,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1401,6 +1477,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1719,13 +1798,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
   <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="4" max="4" width="38.25" customWidth="1"/>
     <col min="5" max="5" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1750,12 +1829,12 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
@@ -1814,12 +1893,12 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
@@ -1939,7 +2018,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>125</v>
@@ -1947,7 +2026,7 @@
       <c r="F15" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="3"/>
@@ -1975,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -3671,17 +3750,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B770B0E9-EE67-4ACA-97FB-13969A7B1B6E}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="13" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
     <col min="6" max="6" width="38.5" customWidth="1"/>
   </cols>
@@ -3697,7 +3776,7 @@
     </row>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12"/>
@@ -3844,14 +3923,14 @@
         <v>83</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="27.75" customHeight="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="29" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>41</v>
@@ -3859,163 +3938,182 @@
       <c r="E17" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:6" ht="27.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="25.5">
+      <c r="C18" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="25.5">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="12" t="b">
-        <v>1</v>
+      <c r="C21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1000</v>
+        <v>36</v>
+      </c>
+      <c r="E22" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="C24" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="32"/>
+      <c r="C25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="33">
-        <v>1</v>
-      </c>
+      <c r="C26" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="E28" s="32" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="B29" s="24" t="s">
+      <c r="C29" s="13"/>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" s="13"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>3</v>
-      </c>
+      <c r="C30" s="13"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:6">
       <c r="B31" s="13"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23">
-        <v>1000</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>111</v>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13">
+      <c r="C32" s="23"/>
+      <c r="D32" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13">
         <v>4000</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="D34" s="13">
+        <v>2032</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -5062,8 +5160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5351,10 +5449,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="D29" s="13">
-        <v>3017</v>
+        <v>2032</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
